--- a/tpw.xlsx
+++ b/tpw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelheroy/Downloads/pcio y cedula/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelheroy/Downloads/covid-19-main/pico y cedula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EA6E01-4948-0B4E-9A72-E516361CB0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5C8E59-F248-284A-974D-7FEC22EB295C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18380" yWindow="460" windowWidth="22940" windowHeight="19660" xr2:uid="{7119F887-4DD0-3648-B514-286CE11EF41D}"/>
+    <workbookView xWindow="12900" yWindow="500" windowWidth="22940" windowHeight="19660" xr2:uid="{7119F887-4DD0-3648-B514-286CE11EF41D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Day</t>
   </si>
@@ -129,19 +129,7 @@
     <t>Ibague</t>
   </si>
   <si>
-    <t>divvided days</t>
-  </si>
-  <si>
-    <t>weekday</t>
-  </si>
-  <si>
-    <t>men/women and ID numbers used</t>
-  </si>
-  <si>
-    <t>Days are divided into times at which people can go out</t>
-  </si>
-  <si>
-    <t>Gender measures begininng on 14 April</t>
+    <t>weekday durng study period</t>
   </si>
 </sst>
 </file>
@@ -495,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B57839-86B1-D649-8720-7BCE03DA3C1D}">
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -2822,23 +2810,6 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="I42" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" t="s">
-        <v>34</v>
-      </c>
-      <c r="R42" t="s">
-        <v>31</v>
-      </c>
-      <c r="S42" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
